--- a/tecnica_analise/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
+++ b/tecnica_analise/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="25" r:id="rId1"/>
@@ -829,521 +829,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCF5E8"/>
-          <bgColor rgb="FFFCF5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCF5E8"/>
-          <bgColor rgb="FFFCF5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCF5E8"/>
-          <bgColor rgb="FFFCF5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCF5E8"/>
-          <bgColor rgb="FFFCF5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCF5E8"/>
-          <bgColor rgb="FFFCF5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1866,13 +1352,357 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1881,6 +1711,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1905,196 +1745,106 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 10" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="92"/>
+      <tableStyleElement type="secondRowStripe" dxfId="91"/>
     </tableStyle>
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="firstRowStripe" dxfId="90"/>
+      <tableStyleElement type="secondRowStripe" dxfId="89"/>
     </tableStyle>
     <tableStyle name="Equipes-style 3" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="88"/>
+      <tableStyleElement type="secondRowStripe" dxfId="87"/>
     </tableStyle>
     <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="86"/>
+      <tableStyleElement type="secondRowStripe" dxfId="85"/>
     </tableStyle>
     <tableStyle name="Equipes-style 7" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="84"/>
+      <tableStyleElement type="secondRowStripe" dxfId="83"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2119,11 +1869,11 @@
     <tableColumn id="1" name="Column1">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" name="Column3" dataDxfId="30">
+    <tableColumn id="2" name="Column2" dataDxfId="78"/>
+    <tableColumn id="3" name="Column3" dataDxfId="77">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="29">
+    <tableColumn id="4" name="Column4" dataDxfId="76">
       <calculatedColumnFormula>H77/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2132,16 +1882,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="25">
+    <tableColumn id="1" name="Column1" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="9">
+    <tableColumn id="2" name="Column2" dataDxfId="71"/>
+    <tableColumn id="3" name="Column3" dataDxfId="70">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="8">
+    <tableColumn id="4" name="Column4" dataDxfId="69">
       <calculatedColumnFormula>H78/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2155,11 +1905,11 @@
     <tableColumn id="1" name="Column1">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="1"/>
-    <tableColumn id="3" name="Column3" dataDxfId="24">
+    <tableColumn id="2" name="Column2" dataDxfId="68"/>
+    <tableColumn id="3" name="Column3" dataDxfId="67">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="23">
+    <tableColumn id="4" name="Column4" dataDxfId="66">
       <calculatedColumnFormula>H79/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2168,16 +1918,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="19">
+    <tableColumn id="1" name="Column1" dataDxfId="62">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="0"/>
-    <tableColumn id="3" name="Column3" dataDxfId="18">
+    <tableColumn id="2" name="Column2" dataDxfId="61"/>
+    <tableColumn id="3" name="Column3" dataDxfId="60">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="17">
+    <tableColumn id="4" name="Column4" dataDxfId="59">
       <calculatedColumnFormula>H80/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2186,16 +1936,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="13">
+    <tableColumn id="1" name="Column1" dataDxfId="55">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="12"/>
-    <tableColumn id="3" name="Column3" dataDxfId="11">
+    <tableColumn id="2" name="Column2" dataDxfId="54"/>
+    <tableColumn id="3" name="Column3" dataDxfId="53">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="10">
+    <tableColumn id="4" name="Column4" dataDxfId="52">
       <calculatedColumnFormula>H81/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2492,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="11">
-        <f t="shared" ref="I3:I57" si="0">H4-D$73</f>
+        <f t="shared" ref="I4:I57" si="0">H4-D$73</f>
         <v>-17340.855</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -2674,7 +2424,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" ref="H3:H57" si="1">C5*D$73</f>
+        <f t="shared" ref="H5:H56" si="1">C5*D$73</f>
         <v>34681.71</v>
       </c>
       <c r="I5" s="11">
@@ -4615,7 +4365,7 @@
         <v>61386.626700000008</v>
       </c>
       <c r="I65" s="37">
-        <f t="shared" ref="I65:I86" si="3">H65/D$71*100</f>
+        <f t="shared" ref="I65:I85" si="3">H65/D$71*100</f>
         <v>12.39</v>
       </c>
       <c r="J65" s="3"/>
@@ -5097,18 +4847,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I57">
-    <cfRule type="cellIs" dxfId="112" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:H85">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5684,21 +5434,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6287,21 +6037,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7344,29 +7094,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G44">
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8208,21 +7958,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F11:G41">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9153,21 +8903,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G41">
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9180,7 +8930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -9951,21 +9701,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G31">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10586,21 +10336,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G28">
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11303,21 +11053,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12053,21 +11803,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12718,21 +12468,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
